--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C7BE2E-3955-8347-90E6-78D89290872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBFFA1A-7960-A34D-96AD-00EB57A969CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -112,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,13 +161,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,6 +201,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:G9"/>
+  <dimension ref="B3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -598,9 +615,9 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1">
         <v>2</v>
       </c>
@@ -612,37 +629,55 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3">
         <v>45308</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBFFA1A-7960-A34D-96AD-00EB57A969CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD0966-B99E-E148-8A6F-BACAF0146EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,26 @@
   </si>
   <si>
     <t>82分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:G10"/>
+  <dimension ref="B3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -540,7 +560,7 @@
     <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +579,11 @@
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="4">
         <v>45307</v>
       </c>
@@ -579,8 +602,11 @@
       <c r="G4" s="1">
         <v>13</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -593,8 +619,11 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="4">
         <v>45308</v>
       </c>
@@ -613,8 +642,11 @@
       <c r="G6" s="1">
         <v>70</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -627,8 +659,11 @@
       <c r="G7" s="1">
         <v>52</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -641,8 +676,11 @@
       <c r="G8" s="1">
         <v>44</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="3">
         <v>45308</v>
       </c>
@@ -661,14 +699,28 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="2:8">
+      <c r="B10" s="3">
+        <v>45308</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD0966-B99E-E148-8A6F-BACAF0146EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D803D7-2C40-114D-AC76-8698D4D93BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="B3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -579,7 +579,7 @@
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -602,7 +602,7 @@
       <c r="G4" s="1">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -619,7 +619,7 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -642,7 +642,7 @@
       <c r="G6" s="1">
         <v>70</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
       <c r="G7" s="1">
         <v>52</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -676,7 +676,7 @@
       <c r="G8" s="1">
         <v>44</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -699,7 +699,7 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -713,12 +713,16 @@
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
       <c r="G10" s="1">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D803D7-2C40-114D-AC76-8698D4D93BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B190779F-9743-C24B-8CB6-08A0EF9DD61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>68分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,26 +55,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>55分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2小时10分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>41分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>82分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>36分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,7 +75,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
+    <t>70分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:H10"/>
+  <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -571,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -580,18 +564,18 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="4">
         <v>45307</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="6">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -602,9 +586,7 @@
       <c r="G4" s="1">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="5"/>
@@ -619,19 +601,17 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="4">
         <v>45308</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
+      <c r="C6" s="6">
+        <v>55</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -642,9 +622,7 @@
       <c r="G6" s="1">
         <v>70</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="9"/>
@@ -659,14 +637,12 @@
       <c r="G7" s="1">
         <v>52</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1">
         <v>3</v>
       </c>
@@ -676,64 +652,168 @@
       <c r="G8" s="1">
         <v>44</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="3">
-        <v>45308</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="3">
         <v>45308</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
+      <c r="C10" s="1">
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
+        <v>82</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="4">
+        <v>45308</v>
+      </c>
+      <c r="C11" s="6">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>30</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="4">
+        <v>45309</v>
+      </c>
+      <c r="C13" s="6">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="3">
+        <v>45309</v>
+      </c>
+      <c r="C16" s="1">
         <v>15</v>
       </c>
+      <c r="D16" s="1">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D6:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B190779F-9743-C24B-8CB6-08A0EF9DD61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E016080-47D9-0F4D-8AE9-3CF0F2768769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E016080-47D9-0F4D-8AE9-3CF0F2768769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E363D50-6CCD-0F40-BCB2-CA7938CF5E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:H16"/>
+  <dimension ref="B3:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -797,6 +797,25 @@
         <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E363D50-6CCD-0F40-BCB2-CA7938CF5E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0339D-0F62-6449-89A0-1EAA8032BEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:H17"/>
+  <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -801,26 +801,46 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>45310</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>10</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>20</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>20</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0339D-0F62-6449-89A0-1EAA8032BEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850AC9E-8FBB-124C-9501-F375D268D360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:H18"/>
+  <dimension ref="B3:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -833,6 +833,27 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="3">
+        <v>45310</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850AC9E-8FBB-124C-9501-F375D268D360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5CC538-5B47-4244-8AF9-F923141D62C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>70分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:H19"/>
+  <dimension ref="B3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -796,9 +800,7 @@
       <c r="G16" s="1">
         <v>30</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4">
@@ -832,18 +834,16 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>45310</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <v>30</v>
       </c>
       <c r="E19" s="1">
@@ -853,15 +853,73 @@
       <c r="G19" s="1">
         <v>30</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>84</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5CC538-5B47-4244-8AF9-F923141D62C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D37E4CB-CA4C-9341-8D11-B9807A7AB498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:H22"/>
+  <dimension ref="B3:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -909,6 +909,27 @@
         <v>40</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D37E4CB-CA4C-9341-8D11-B9807A7AB498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1105B157-B006-B049-BAAA-77D2EF762ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:H23"/>
+  <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -887,9 +887,7 @@
       <c r="G21" s="1">
         <v>84</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="3">
@@ -908,9 +906,7 @@
       <c r="G22" s="1">
         <v>40</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="3">
@@ -929,7 +925,43 @@
       <c r="G23" s="1">
         <v>34</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C25" s="1">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>82</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1105B157-B006-B049-BAAA-77D2EF762ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC0CD7-C5D9-A443-BE27-5C2CBA7012F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:H25"/>
+  <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -738,7 +734,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -872,7 +868,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1">
         <v>42</v>
@@ -938,17 +934,19 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>150</v>
+      </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>45313</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>41</v>
       </c>
       <c r="D25" s="1">
@@ -961,12 +959,29 @@
       <c r="G25" s="1">
         <v>82</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>82</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B17:B18"/>

--- a/潘中行读书时间记录.xlsx
+++ b/潘中行读书时间记录.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PanJ/zhonghang/ReadThenPlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC0CD7-C5D9-A443-BE27-5C2CBA7012F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDA95B-4EE8-8540-BCC3-537367B823A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
+    <workbookView xWindow="1860" yWindow="520" windowWidth="28240" windowHeight="16400" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>70分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,12 +93,24 @@
     <t>1月21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2月3日开始1.4倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,16 +134,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -176,13 +217,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,13 +270,7 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,6 +278,60 @@
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,24 +647,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="B3:H26"/>
+  <dimension ref="B1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="1" spans="2:14">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,15 +708,20 @@
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="4">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="15">
         <v>45307</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="12">
         <v>34</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1">
@@ -587,11 +734,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1">
         <v>2</v>
       </c>
@@ -602,15 +754,17 @@
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="4">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="15">
         <v>45308</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="12">
         <v>55</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1">
@@ -623,11 +777,13 @@
         <v>70</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1">
         <v>2</v>
       </c>
@@ -638,11 +794,13 @@
         <v>52</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1">
         <v>3</v>
       </c>
@@ -653,11 +811,13 @@
         <v>44</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="17"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1">
         <v>4</v>
       </c>
@@ -668,36 +828,38 @@
         <v>0</v>
       </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="3">
         <v>45308</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="11">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
         <v>82</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="4">
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="15">
         <v>45308</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="12">
         <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1">
@@ -711,10 +873,10 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+    <row r="12" spans="2:14">
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1">
         <v>2</v>
       </c>
@@ -726,15 +888,15 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="4">
+    <row r="13" spans="2:14">
+      <c r="B13" s="15">
         <v>45309</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="12">
         <v>35</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -747,10 +909,10 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+    <row r="14" spans="2:14">
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="1">
         <v>1</v>
       </c>
@@ -761,11 +923,17 @@
         <v>50</v>
       </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1">
         <v>2</v>
       </c>
@@ -777,7 +945,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:14">
       <c r="B16" s="3">
         <v>45309</v>
       </c>
@@ -799,13 +967,13 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="4">
+      <c r="B17" s="15">
         <v>45310</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="12">
         <v>10</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="12">
         <v>20</v>
       </c>
       <c r="E17" s="1">
@@ -818,9 +986,9 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -833,13 +1001,13 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="4">
+      <c r="B19" s="15">
         <v>45310</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="12">
         <v>15</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="12">
         <v>30</v>
       </c>
       <c r="E19" s="1">
@@ -852,9 +1020,9 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="1">
         <v>1</v>
       </c>
@@ -868,7 +1036,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>42</v>
@@ -943,10 +1111,10 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="4">
+      <c r="B25" s="15">
         <v>45313</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="12">
         <v>41</v>
       </c>
       <c r="D25" s="1">
@@ -962,8 +1130,8 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="1">
         <v>82</v>
       </c>
@@ -978,10 +1146,2662 @@
       </c>
       <c r="H26" s="1"/>
     </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="3">
+        <v>45314</v>
+      </c>
+      <c r="C27" s="1">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1">
+        <v>60</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>60</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C28" s="19">
+        <v>23</v>
+      </c>
+      <c r="D28" s="19">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>46</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>46</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C30" s="19">
+        <v>37</v>
+      </c>
+      <c r="D30" s="19">
+        <v>74</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>74</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="15">
+        <v>45314</v>
+      </c>
+      <c r="C32" s="12">
+        <v>13</v>
+      </c>
+      <c r="D32" s="12">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="17"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C34" s="19">
+        <v>27</v>
+      </c>
+      <c r="D34" s="19">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>54</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1">
+        <v>35</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1">
+        <v>25</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="3">
+        <v>45315</v>
+      </c>
+      <c r="C37" s="1">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>32</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="3">
+        <v>45315</v>
+      </c>
+      <c r="C38" s="1">
+        <v>28</v>
+      </c>
+      <c r="D38" s="1">
+        <v>56</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>56</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="3">
+        <v>45315</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>86</v>
+      </c>
+      <c r="G39" s="1">
+        <v>27</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>27</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="15">
+        <v>45315</v>
+      </c>
+      <c r="C41" s="12">
+        <v>19</v>
+      </c>
+      <c r="D41" s="12">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1">
+        <v>38</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="17"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>38</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="15">
+        <v>45315</v>
+      </c>
+      <c r="C43" s="12">
+        <v>21</v>
+      </c>
+      <c r="D43" s="12">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>42</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="16"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>21</v>
+      </c>
+      <c r="G44" s="1">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="17"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>21</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="15">
+        <v>45316</v>
+      </c>
+      <c r="C46" s="12">
+        <v>77</v>
+      </c>
+      <c r="D46" s="12">
+        <v>154</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>154</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="16"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>56</v>
+      </c>
+      <c r="G47" s="1">
+        <v>98</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="16"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>30</v>
+      </c>
+      <c r="G48" s="1">
+        <v>68</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="17"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>68</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="15">
+        <v>45316</v>
+      </c>
+      <c r="C50" s="12">
+        <v>14</v>
+      </c>
+      <c r="D50" s="12">
+        <v>28</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1">
+        <v>28</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="17"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>28</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="15">
+        <v>45317</v>
+      </c>
+      <c r="C52" s="12">
+        <v>16</v>
+      </c>
+      <c r="D52" s="12">
+        <v>32</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1">
+        <v>32</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="16"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1">
+        <v>16</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="17"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="3">
+        <v>45317</v>
+      </c>
+      <c r="C55" s="1">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1">
+        <v>52</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1">
+        <v>52</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="3"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>47</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="15">
+        <v>45317</v>
+      </c>
+      <c r="C57" s="12">
+        <v>35</v>
+      </c>
+      <c r="D57" s="12">
+        <v>70</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1">
+        <v>70</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8" ht="24" customHeight="1">
+      <c r="B58" s="16"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>30</v>
+      </c>
+      <c r="G58" s="1">
+        <v>40</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" ht="24" customHeight="1">
+      <c r="B59" s="16"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1">
+        <v>20</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" ht="24" customHeight="1">
+      <c r="B60" s="17"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>20</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="15">
+        <v>45318</v>
+      </c>
+      <c r="C61" s="12">
+        <v>15</v>
+      </c>
+      <c r="D61" s="12">
+        <v>30</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1">
+        <v>30</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="9">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>30</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="15">
+        <v>45319</v>
+      </c>
+      <c r="C63" s="12">
+        <v>21</v>
+      </c>
+      <c r="D63" s="12">
+        <v>42</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1">
+        <v>42</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="16"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1">
+        <v>32</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="16"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>20</v>
+      </c>
+      <c r="G65" s="1">
+        <v>12</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="17"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="18">
+        <v>45320</v>
+      </c>
+      <c r="C67" s="19">
+        <v>10</v>
+      </c>
+      <c r="D67" s="19">
+        <v>15</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1">
+        <v>15</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="15">
+        <v>45320</v>
+      </c>
+      <c r="C69" s="12">
+        <v>32</v>
+      </c>
+      <c r="D69" s="12">
+        <v>45</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>10</v>
+      </c>
+      <c r="G69" s="1">
+        <v>45</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="17"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>45</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="15">
+        <v>45320</v>
+      </c>
+      <c r="C71" s="12">
+        <v>5</v>
+      </c>
+      <c r="D71" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="17"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="15">
+        <v>45320</v>
+      </c>
+      <c r="C73" s="12">
+        <v>13</v>
+      </c>
+      <c r="D73" s="12">
+        <v>20</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1">
+        <v>20</v>
+      </c>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="17"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>20</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="15">
+        <v>45321</v>
+      </c>
+      <c r="C75" s="12">
+        <v>22</v>
+      </c>
+      <c r="D75" s="12">
+        <v>33</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1">
+        <v>33</v>
+      </c>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="17"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>33</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="15">
+        <v>45321</v>
+      </c>
+      <c r="C77" s="12">
+        <v>30</v>
+      </c>
+      <c r="D77" s="12">
+        <v>45</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1">
+        <v>45</v>
+      </c>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="16"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>20</v>
+      </c>
+      <c r="G78" s="1">
+        <v>25</v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="16"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>15</v>
+      </c>
+      <c r="G79" s="1">
+        <v>10</v>
+      </c>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="17"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1">
+        <v>10</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="3">
+        <v>45321</v>
+      </c>
+      <c r="C81" s="1">
+        <v>17</v>
+      </c>
+      <c r="D81" s="1">
+        <v>25</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1">
+        <v>25</v>
+      </c>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="15">
+        <v>45322</v>
+      </c>
+      <c r="C82" s="12">
+        <v>20</v>
+      </c>
+      <c r="D82" s="12">
+        <v>30</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1">
+        <v>30</v>
+      </c>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="17"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>30</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="15">
+        <v>45322</v>
+      </c>
+      <c r="C84" s="12">
+        <v>22</v>
+      </c>
+      <c r="D84" s="12">
+        <v>33</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1">
+        <v>33</v>
+      </c>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="16"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>23</v>
+      </c>
+      <c r="G85" s="1">
+        <v>10</v>
+      </c>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="17"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1">
+        <v>10</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="3">
+        <v>45323</v>
+      </c>
+      <c r="C87" s="1">
+        <v>15</v>
+      </c>
+      <c r="D87" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>25</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="15">
+        <v>45323</v>
+      </c>
+      <c r="C88" s="12">
+        <v>30</v>
+      </c>
+      <c r="D88" s="12">
+        <v>45</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1">
+        <v>45</v>
+      </c>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="16"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>20</v>
+      </c>
+      <c r="G89" s="1">
+        <v>25</v>
+      </c>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="16"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1">
+        <v>10</v>
+      </c>
+      <c r="G90" s="1">
+        <v>15</v>
+      </c>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="17"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="1">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1">
+        <v>5</v>
+      </c>
+      <c r="G91" s="1">
+        <v>10</v>
+      </c>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="7"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="1">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1">
+        <v>10</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="15">
+        <v>45323</v>
+      </c>
+      <c r="C93" s="12">
+        <v>17</v>
+      </c>
+      <c r="D93" s="12">
+        <v>25</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1">
+        <v>25</v>
+      </c>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="17"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>25</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="15">
+        <v>45324</v>
+      </c>
+      <c r="C95" s="12">
+        <v>36</v>
+      </c>
+      <c r="D95" s="12">
+        <v>44</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1">
+        <v>44</v>
+      </c>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="16"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>25</v>
+      </c>
+      <c r="G96" s="1">
+        <v>19</v>
+      </c>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="17"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="1">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>19</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="15">
+        <v>45324</v>
+      </c>
+      <c r="C98" s="12">
+        <v>7</v>
+      </c>
+      <c r="D98" s="12">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1">
+        <v>11</v>
+      </c>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="17"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>11</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="3">
+        <v>45324</v>
+      </c>
+      <c r="C100" s="1">
+        <v>15</v>
+      </c>
+      <c r="D100" s="1">
+        <v>22</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>22</v>
+      </c>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>22</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="15">
+        <v>45324</v>
+      </c>
+      <c r="C102" s="12">
+        <v>16</v>
+      </c>
+      <c r="D102" s="12">
+        <v>24</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1">
+        <v>24</v>
+      </c>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="17"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>24</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="15">
+        <v>45324</v>
+      </c>
+      <c r="C104" s="12">
+        <v>20</v>
+      </c>
+      <c r="D104" s="12">
+        <v>30</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1">
+        <v>30</v>
+      </c>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="17"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>30</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="15">
+        <v>45325</v>
+      </c>
+      <c r="C106" s="12">
+        <v>25</v>
+      </c>
+      <c r="D106" s="12">
+        <v>37</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1">
+        <v>37</v>
+      </c>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="16"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>20</v>
+      </c>
+      <c r="G107" s="1">
+        <v>17</v>
+      </c>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="17"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="1">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>17</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="15">
+        <v>45325</v>
+      </c>
+      <c r="C109" s="12">
+        <v>15</v>
+      </c>
+      <c r="D109" s="12">
+        <v>21</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1">
+        <v>21</v>
+      </c>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="17"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>21</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="15">
+        <v>45326</v>
+      </c>
+      <c r="C111" s="12">
+        <v>17</v>
+      </c>
+      <c r="D111" s="12">
+        <v>23</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1">
+        <v>23</v>
+      </c>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="17"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>23</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="15">
+        <v>45326</v>
+      </c>
+      <c r="C113" s="12">
+        <v>11</v>
+      </c>
+      <c r="D113" s="12">
+        <v>15</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1">
+        <v>15</v>
+      </c>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="17"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>15</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="15">
+        <v>45326</v>
+      </c>
+      <c r="C115" s="12">
+        <v>12</v>
+      </c>
+      <c r="D115" s="12">
+        <v>17</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1">
+        <v>17</v>
+      </c>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="16"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1">
+        <v>5</v>
+      </c>
+      <c r="G116" s="1">
+        <v>12</v>
+      </c>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="17"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="1">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1">
+        <v>12</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="3">
+        <v>45327</v>
+      </c>
+      <c r="C118" s="1">
+        <v>13</v>
+      </c>
+      <c r="D118" s="1">
+        <v>18</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>18</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="15">
+        <v>45327</v>
+      </c>
+      <c r="C119" s="12">
+        <v>20</v>
+      </c>
+      <c r="D119" s="12">
+        <v>28</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1">
+        <v>28</v>
+      </c>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="17"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>28</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="15">
+        <v>45327</v>
+      </c>
+      <c r="C121" s="12">
+        <v>28</v>
+      </c>
+      <c r="D121" s="12">
+        <v>40</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1">
+        <v>40</v>
+      </c>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="17"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>40</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="3">
+        <v>45327</v>
+      </c>
+      <c r="C123" s="1">
+        <v>10</v>
+      </c>
+      <c r="D123" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="3">
+        <v>45327</v>
+      </c>
+      <c r="C124" s="1">
+        <v>12</v>
+      </c>
+      <c r="D124" s="1">
+        <v>16</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="15">
+        <v>45329</v>
+      </c>
+      <c r="C125" s="12">
+        <v>44</v>
+      </c>
+      <c r="D125" s="12">
+        <v>61</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1">
+        <v>61</v>
+      </c>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="16"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>30</v>
+      </c>
+      <c r="G126" s="1">
+        <v>31</v>
+      </c>
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="17"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="1">
+        <v>2</v>
+      </c>
+      <c r="F127" s="1">
+        <v>31</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="15">
+        <v>45340</v>
+      </c>
+      <c r="C128" s="12">
+        <v>50</v>
+      </c>
+      <c r="D128" s="12">
+        <v>70</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1">
+        <v>70</v>
+      </c>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="16"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>20</v>
+      </c>
+      <c r="G129" s="1">
+        <v>50</v>
+      </c>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="16"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1">
+        <v>20</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="17"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="1">
+        <v>3</v>
+      </c>
+      <c r="F131" s="1">
+        <v>30</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="15">
+        <v>45341</v>
+      </c>
+      <c r="C132" s="12">
+        <v>20</v>
+      </c>
+      <c r="D132" s="12">
+        <v>28</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1">
+        <v>28</v>
+      </c>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="17"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>28</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="15">
+        <v>45341</v>
+      </c>
+      <c r="C134" s="12">
+        <v>18</v>
+      </c>
+      <c r="D134" s="12">
+        <v>26</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1">
+        <v>26</v>
+      </c>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="17"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1">
+        <v>26</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="15">
+        <v>45341</v>
+      </c>
+      <c r="C136" s="12">
+        <v>28</v>
+      </c>
+      <c r="D136" s="12">
+        <v>39</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1">
+        <v>39</v>
+      </c>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="16"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <v>20</v>
+      </c>
+      <c r="G137" s="1">
+        <v>19</v>
+      </c>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="17"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="1">
+        <v>2</v>
+      </c>
+      <c r="F138" s="1">
+        <v>19</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="15">
+        <v>45341</v>
+      </c>
+      <c r="C139" s="12">
+        <v>20</v>
+      </c>
+      <c r="D139" s="12">
+        <v>28</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1">
+        <v>28</v>
+      </c>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="17"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
+        <v>28</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="15">
+        <v>45341</v>
+      </c>
+      <c r="C141" s="12">
+        <v>25</v>
+      </c>
+      <c r="D141" s="12">
+        <v>40</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1">
+        <v>40</v>
+      </c>
+      <c r="H141" s="1"/>
+      <c r="I141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="16"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>20</v>
+      </c>
+      <c r="G142" s="1">
+        <v>20</v>
+      </c>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="17"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="1">
+        <v>2</v>
+      </c>
+      <c r="F143" s="1">
+        <v>20</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="18">
+        <v>45342</v>
+      </c>
+      <c r="C144" s="12">
+        <v>23</v>
+      </c>
+      <c r="D144" s="12">
+        <v>44</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1">
+        <v>44</v>
+      </c>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="18"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <v>10</v>
+      </c>
+      <c r="G145" s="1">
+        <v>34</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="M145" s="23"/>
+    </row>
+    <row r="146" spans="2:13">
+      <c r="B146" s="18"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="1">
+        <v>2</v>
+      </c>
+      <c r="F146" s="1">
+        <v>10</v>
+      </c>
+      <c r="G146" s="1">
+        <v>24</v>
+      </c>
+      <c r="H146" s="1"/>
+      <c r="M146" s="23"/>
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" s="18"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="1">
+        <v>3</v>
+      </c>
+      <c r="F147" s="1">
+        <v>24</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="15">
+        <v>45342</v>
+      </c>
+      <c r="C148" s="12">
+        <v>21</v>
+      </c>
+      <c r="D148" s="12">
+        <v>33</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1">
+        <v>33</v>
+      </c>
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" s="16"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>10</v>
+      </c>
+      <c r="G149" s="1">
+        <v>23</v>
+      </c>
+      <c r="H149" s="1"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="25"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="16"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="1">
+        <v>2</v>
+      </c>
+      <c r="F150" s="1">
+        <v>10</v>
+      </c>
+      <c r="G150" s="1">
+        <v>13</v>
+      </c>
+      <c r="H150" s="1"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="25"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="17"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="1">
+        <v>3</v>
+      </c>
+      <c r="F151" s="1">
+        <v>13</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1"/>
+      <c r="J151" s="25"/>
+      <c r="K151" s="25"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C152" s="1">
+        <v>12</v>
+      </c>
+      <c r="D152" s="1">
+        <v>16</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1">
+        <v>16</v>
+      </c>
+      <c r="H152" s="1"/>
+      <c r="J152" s="25"/>
+      <c r="K152" s="25"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" s="15">
+        <v>45346</v>
+      </c>
+      <c r="C153" s="12">
+        <v>13</v>
+      </c>
+      <c r="D153" s="12">
+        <v>20</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
+        <v>20</v>
+      </c>
+      <c r="H153" s="1"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="25"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" s="17"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1">
+        <v>20</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0</v>
+      </c>
+      <c r="H154" s="1"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="25"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="3">
+        <v>45351</v>
+      </c>
+      <c r="C155" s="1">
+        <v>12</v>
+      </c>
+      <c r="D155" s="20">
+        <v>18</v>
+      </c>
+      <c r="E155" s="20">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
+        <v>18</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J155" s="25"/>
+      <c r="K155" s="25"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="25"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="25"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="25"/>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="25"/>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="25"/>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="25"/>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="2:11">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="2:11">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="2:11">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="2:11">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="2:11">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="2:8">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="2:8">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="2:8">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="2:8">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="2:8">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="2:8">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="2:8">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="2:8">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="149">
+    <mergeCell ref="D148:D151"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="C144:C147"/>
+    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B17:B18"/>
@@ -994,13 +3814,180 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D6:D9"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB314E1-A9B1-E341-AF63-25FC13968BD3}">
+  <dimension ref="A1:A52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="10"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="10"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="10"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="10"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="10"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="10"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="10"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="10"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="10"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
